--- a/app/assets/downloads/space_data.xlsx
+++ b/app/assets/downloads/space_data.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FionaJamieson\Documents\Prototypes\space\app\assets\downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD9E0FA-D8F5-496B-BB27-E6FF492B1CFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7DE20AF-FBD0-4D63-9CC8-07A8DDCC23E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{D5D1E4A6-9811-4BB1-9D5B-B9C1AFA2B864}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{D5D1E4A6-9811-4BB1-9D5B-B9C1AFA2B864}"/>
   </bookViews>
   <sheets>
-    <sheet name="Satellite 1 location data" sheetId="2" r:id="rId1"/>
-    <sheet name="sheet 2" sheetId="3" r:id="rId2"/>
+    <sheet name="Satellite 1 Location data" sheetId="4" r:id="rId1"/>
+    <sheet name="Bonus Sheet" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -397,6 +397,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A70509B5-D114-443A-B4E9-ABCC5FD2DB1E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CB9CCEB-EF22-427C-8C42-ADF96FF7C671}">
   <dimension ref="A1:A5"/>
   <sheetViews>
@@ -429,16 +443,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF61B927-11A0-4F89-8B75-9E7A644141E2}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/app/assets/downloads/space_data.xlsx
+++ b/app/assets/downloads/space_data.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FionaJamieson\Documents\Prototypes\space\app\assets\downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7DE20AF-FBD0-4D63-9CC8-07A8DDCC23E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A472EE73-A3D6-4606-8B25-A9F08C7FDDD5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{D5D1E4A6-9811-4BB1-9D5B-B9C1AFA2B864}"/>
+    <workbookView xWindow="28770" yWindow="0" windowWidth="14190" windowHeight="17400" xr2:uid="{D5D1E4A6-9811-4BB1-9D5B-B9C1AFA2B864}"/>
   </bookViews>
   <sheets>
-    <sheet name="Satellite 1 Location data" sheetId="4" r:id="rId1"/>
-    <sheet name="Bonus Sheet" sheetId="2" r:id="rId2"/>
+    <sheet name="Satellite Location data" sheetId="4" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>How does a man cut his hair on the moon?</t>
   </si>
@@ -47,6 +46,21 @@
   </si>
   <si>
     <t>Rocket</t>
+  </si>
+  <si>
+    <t>What does a star win in a competition?</t>
+  </si>
+  <si>
+    <t>A constellation prize</t>
+  </si>
+  <si>
+    <t>Why didn't the Dog Star laugh at the joke?</t>
+  </si>
+  <si>
+    <t>It was too Sirius</t>
+  </si>
+  <si>
+    <t>I thought about putting an observatory in my house, but the cost was astronomical</t>
   </si>
 </sst>
 </file>
@@ -398,24 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A70509B5-D114-443A-B4E9-ABCC5FD2DB1E}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CB9CCEB-EF22-427C-8C42-ADF96FF7C671}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -440,6 +440,31 @@
         <v>3</v>
       </c>
     </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
